--- a/echo_server/benchmarks/EchoServer.xlsx
+++ b/echo_server/benchmarks/EchoServer.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\jiofrost\practice\echo_server\banchmark\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmcad\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D6376A-C06A-47CA-9A57-499ED3943F42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8069ABCE-9AB2-43BB-815D-CE66692CB0A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7FC817B1-F79D-439A-B0BC-4048D968F762}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4F0A08C9-3A33-4E7A-B0FC-FF9134C15DC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Wasm_100_000">Sheet1!$A$2:$B$12</definedName>
-    <definedName name="Wasmless_100_000">Sheet1!$C$2:$D$12</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$D$2:$D$11</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$E$2:$E$11</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$H$2:$H$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,15 +40,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
-    <t>Throughput (Requests / sec)</t>
+    <t>Throughput</t>
   </si>
   <si>
-    <t>Avg.Latency(ms)</t>
+    <t>Latency (ns)</t>
   </si>
   <si>
-    <t>Average</t>
+    <t>Latency (ms)</t>
+  </si>
+  <si>
+    <t>Wasm</t>
+  </si>
+  <si>
+    <t>Wasmless</t>
   </si>
 </sst>
 </file>
@@ -115,7 +123,62 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Echo Server Performance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -128,117 +191,104 @@
             <c:v>Wasm</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:alpha val="65000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="plus"/>
-            <c:size val="4"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="12700" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$12</c:f>
+              <c:f>Sheet1!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1562.83</c:v>
+                  <c:v>1120.98</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1572.48</c:v>
+                  <c:v>2039.34</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1603.39</c:v>
+                  <c:v>2850.84</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1605.65</c:v>
+                  <c:v>3571.39</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1607.48</c:v>
+                  <c:v>4138.2700000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1609.54</c:v>
+                  <c:v>4484.1499999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1616.92</c:v>
+                  <c:v>4745.34</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1620.66</c:v>
+                  <c:v>4957.42</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1628.06</c:v>
+                  <c:v>5097</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1788.5</c:v>
+                  <c:v>5237.8500000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$12</c:f>
+              <c:f>Sheet1!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.56792900000000002</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.52893500000000004</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.53732500000000005</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.54268700000000003</c:v>
+                  <c:v>1.03</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.53615100000000004</c:v>
+                  <c:v>1.1200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.54442800000000002</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.54497700000000004</c:v>
+                  <c:v>1.37</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.55493300000000001</c:v>
+                  <c:v>1.51</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.52923699999999996</c:v>
+                  <c:v>1.65</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.49456499999999998</c:v>
+                  <c:v>1.78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -246,7 +296,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F940-44CE-92CB-5C26FA19A33D}"/>
+              <c16:uniqueId val="{00000000-55DE-4C23-B617-1DAEFE03B7DA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -257,19 +307,17 @@
             <c:v>Wasmless</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="12700" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:alpha val="65000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="5"/>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -278,98 +326,85 @@
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="12700" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$12</c:f>
+              <c:f>Sheet1!$G$2:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2027.28</c:v>
+                  <c:v>1146.96</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2142.86</c:v>
+                  <c:v>2349.0300000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2188.9699999999998</c:v>
+                  <c:v>3539.37</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2192.89</c:v>
+                  <c:v>4418.6000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2264.69</c:v>
+                  <c:v>5292.54</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2280.5700000000002</c:v>
+                  <c:v>6031.77</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2308.5300000000002</c:v>
+                  <c:v>6674.37</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2325.4299999999998</c:v>
+                  <c:v>7260.64</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2408.91</c:v>
+                  <c:v>7681.27</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2426.96</c:v>
+                  <c:v>8014.81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$12</c:f>
+              <c:f>Sheet1!$H$2:$H$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.48395199999999999</c:v>
+                  <c:v>0.79</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.50652699999999995</c:v>
+                  <c:v>0.76600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.51812899999999995</c:v>
+                  <c:v>0.76500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.47623199999999999</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.37873299999999999</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.367064</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.37005399999999999</c:v>
+                  <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.40553800000000001</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.35243999999999998</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.34867300000000001</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -377,11 +412,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F940-44CE-92CB-5C26FA19A33D}"/>
+              <c16:uniqueId val="{00000002-55DE-4C23-B617-1DAEFE03B7DA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -389,15 +425,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1119962255"/>
-        <c:axId val="1119904847"/>
+        <c:axId val="2130272352"/>
+        <c:axId val="2130285248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1119962255"/>
+        <c:axId val="2130272352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2450"/>
-          <c:min val="1520"/>
+          <c:max val="8500"/>
+          <c:min val="1000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -422,7 +458,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -435,20 +471,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>Throughput</a:t>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Throughput [req/sec]</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>[requests</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t>/sec]</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -465,7 +490,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -490,8 +515,126 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2130285248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2130285248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.60000000000000009"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Avg. Latency [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -518,131 +661,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1119904847"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="100"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1119904847"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0.30000000000000004"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Avg.Latency</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t>[ms]</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1119962255"/>
+        <c:crossAx val="2130272352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -656,16 +675,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="7.0350906706786953E-2"/>
-          <c:y val="4.0349483717235901E-2"/>
-          <c:w val="0.88486665113426177"/>
-          <c:h val="8.5059617221006426E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -708,7 +717,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -780,7 +789,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -791,7 +800,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -807,25 +816,25 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -837,7 +846,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -845,11 +854,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -881,35 +890,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -921,22 +940,26 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -966,15 +989,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -984,7 +1005,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -993,7 +1014,43 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -1003,65 +1060,125 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1074,54 +1191,17 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -1131,8 +1211,8 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
+  </cs:seriesLine>
+  <cs:title>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1142,66 +1222,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1210,14 +1231,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1231,27 +1251,26 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1268,9 +1287,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1283,14 +1302,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1299,23 +1312,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>281275</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>179926</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>230221</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>120423</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24BD7045-B6A0-43E2-9A5A-6C3FF5F409F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{620418D0-7760-4D7C-B1B6-F2F7F682E60C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1632,270 +1645,252 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C6F47F-6FE6-41BA-B1A1-CE265442EC49}">
-  <dimension ref="A2:D24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50BC5F63-C0C1-454E-BEE8-A82D31DD0A99}">
+  <dimension ref="B1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1562.83</v>
-      </c>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>813488.6</v>
+      </c>
+      <c r="D2">
+        <v>1120.98</v>
+      </c>
+      <c r="E2">
+        <v>0.81</v>
+      </c>
+      <c r="G2">
+        <v>1146.96</v>
+      </c>
+      <c r="H2">
+        <v>0.79</v>
+      </c>
+      <c r="J2">
+        <v>792557.2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3">
-        <v>0.56792900000000002</v>
-      </c>
-      <c r="C3">
-        <v>2027.28</v>
+        <v>900706.5</v>
       </c>
       <c r="D3">
-        <v>0.48395199999999999</v>
+        <v>2039.34</v>
+      </c>
+      <c r="E3">
+        <v>0.9</v>
+      </c>
+      <c r="G3">
+        <v>2349.0300000000002</v>
+      </c>
+      <c r="H3">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="J3">
+        <v>766082.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1572.48</v>
-      </c>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4">
-        <v>0.52893500000000004</v>
-      </c>
-      <c r="C4">
-        <v>2142.86</v>
+        <v>968108.1</v>
       </c>
       <c r="D4">
-        <v>0.50652699999999995</v>
+        <v>2850.84</v>
+      </c>
+      <c r="E4">
+        <v>0.97</v>
+      </c>
+      <c r="G4">
+        <v>3539.37</v>
+      </c>
+      <c r="H4">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="J4">
+        <v>765753.8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1603.39</v>
-      </c>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5">
-        <v>0.53732500000000005</v>
-      </c>
-      <c r="C5">
-        <v>2188.9699999999998</v>
+        <v>1034233</v>
       </c>
       <c r="D5">
-        <v>0.51812899999999995</v>
+        <v>3571.39</v>
+      </c>
+      <c r="E5">
+        <v>1.03</v>
+      </c>
+      <c r="G5">
+        <v>4418.6000000000004</v>
+      </c>
+      <c r="H5">
+        <v>0.81</v>
+      </c>
+      <c r="J5">
+        <v>811142</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1605.65</v>
-      </c>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6">
-        <v>0.54268700000000003</v>
-      </c>
-      <c r="C6">
-        <v>2192.89</v>
+        <v>1118207</v>
       </c>
       <c r="D6">
-        <v>0.47623199999999999</v>
+        <v>4138.2700000000004</v>
+      </c>
+      <c r="E6">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G6">
+        <v>5292.54</v>
+      </c>
+      <c r="H6">
+        <v>0.84</v>
+      </c>
+      <c r="J6">
+        <v>839329.6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1607.48</v>
-      </c>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7">
-        <v>0.53615100000000004</v>
-      </c>
-      <c r="C7">
-        <v>2264.69</v>
+        <v>1243368</v>
       </c>
       <c r="D7">
-        <v>0.37873299999999999</v>
+        <v>4484.1499999999996</v>
+      </c>
+      <c r="E7">
+        <v>1.24</v>
+      </c>
+      <c r="G7">
+        <v>6031.77</v>
+      </c>
+      <c r="H7">
+        <v>0.88</v>
+      </c>
+      <c r="J7">
+        <v>879662.9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1609.54</v>
-      </c>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8">
-        <v>0.54442800000000002</v>
-      </c>
-      <c r="C8">
-        <v>2280.5700000000002</v>
+        <v>1373268</v>
       </c>
       <c r="D8">
-        <v>0.367064</v>
+        <v>4745.34</v>
+      </c>
+      <c r="E8">
+        <v>1.37</v>
+      </c>
+      <c r="G8">
+        <v>6674.37</v>
+      </c>
+      <c r="H8">
+        <v>0.93</v>
+      </c>
+      <c r="J8">
+        <v>925002.4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>1616.92</v>
-      </c>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9">
-        <v>0.54497700000000004</v>
-      </c>
-      <c r="C9">
-        <v>2308.5300000000002</v>
+        <v>1505895</v>
       </c>
       <c r="D9">
-        <v>0.37005399999999999</v>
+        <v>4957.42</v>
+      </c>
+      <c r="E9">
+        <v>1.51</v>
+      </c>
+      <c r="G9">
+        <v>7260.64</v>
+      </c>
+      <c r="H9">
+        <v>0.97</v>
+      </c>
+      <c r="J9">
+        <v>968744.9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1620.66</v>
-      </c>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10">
-        <v>0.55493300000000001</v>
-      </c>
-      <c r="C10">
-        <v>2325.4299999999998</v>
+        <v>1649926</v>
       </c>
       <c r="D10">
-        <v>0.40553800000000001</v>
+        <v>5097</v>
+      </c>
+      <c r="E10">
+        <v>1.65</v>
+      </c>
+      <c r="G10">
+        <v>7681.27</v>
+      </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
+      <c r="J10">
+        <v>1026130</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>1628.06</v>
-      </c>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11">
-        <v>0.52923699999999996</v>
-      </c>
-      <c r="C11">
-        <v>2408.91</v>
+        <v>1784904</v>
       </c>
       <c r="D11">
-        <v>0.35243999999999998</v>
+        <v>5237.8500000000004</v>
+      </c>
+      <c r="E11">
+        <v>1.78</v>
+      </c>
+      <c r="G11">
+        <v>8014.81</v>
+      </c>
+      <c r="H11">
+        <v>1.08</v>
+      </c>
+      <c r="J11">
+        <v>1088103</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>1788.5</v>
-      </c>
-      <c r="B12">
-        <v>0.49456499999999998</v>
-      </c>
-      <c r="C12">
-        <v>2426.96</v>
-      </c>
-      <c r="D12">
-        <v>0.34867300000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <f>AVERAGE(A3:A12)</f>
-        <v>1621.5509999999999</v>
-      </c>
-      <c r="C15">
-        <f>AVERAGE(C3:C12)</f>
-        <v>2256.7089999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>1621.5509999999999</v>
-      </c>
-      <c r="C16">
-        <v>2256.2089999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>1621.5509999999999</v>
-      </c>
-      <c r="C17">
-        <v>2256.2089999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>1621.5509999999999</v>
-      </c>
-      <c r="C18">
-        <v>2256.2089999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>1621.5509999999999</v>
-      </c>
-      <c r="C19">
-        <v>2256.2089999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>1621.5509999999999</v>
-      </c>
-      <c r="C20">
-        <v>2256.2089999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>1621.5509999999999</v>
-      </c>
-      <c r="C21">
-        <v>2256.2089999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>1621.5509999999999</v>
-      </c>
-      <c r="C22">
-        <v>2256.2089999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>1621.5509999999999</v>
-      </c>
-      <c r="C23">
-        <v>2256.2089999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>1621.5509999999999</v>
-      </c>
-      <c r="C24">
-        <v>2256.2089999999998</v>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:D12">
-    <sortCondition ref="C2:C12"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>